--- a/キャリア理論基礎Forリクトレ_スキルシート_鈴木雅美_1.0.0.xlsx
+++ b/キャリア理論基礎Forリクトレ_スキルシート_鈴木雅美_1.0.0.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t xml:space="preserve">技　術　者　経　歴　書</t>
   </si>
@@ -180,17 +180,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">某大手物流会社カスタマーサポートセンター</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サブリーダー</t>
+    <t xml:space="preserve">某物流会社倉庫(パート)</t>
   </si>
   <si>
     <t xml:space="preserve">【業務概要】
-・受電の対応
-・お客様問合せ
+・ピッキング作業
  【担当業務】
-・シフト、勤怠管理
+・
 ・全国店舗へ電話応対スキルチェックと指導
 ・新人研修指導
 ・所属部署の働き方改革担当
@@ -200,6 +196,25 @@
    ---------------------------------------------
  2022年4月から2023年5月までは家庭内
 2023年6月から2025年6月まで別会社へ転職し就業していました。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">某大手物流会社カスタマーサポートセンター</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サブリーダー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">【業務概要】
+・受電の対応 
+・お客様問合せ
+【担当業務】
+・シフト、勤怠管理 
+・全国店舗へ電話応対スキルチェックと指導 
+・新人研修指導 
+・所属部署の働き方改革担当  
+【成果】 
+・指導した従業員のスキル＆効率化UP 
+・社内指導者資格の取得</t>
   </si>
   <si>
     <t xml:space="preserve">　・店舗運営、管理</t>
@@ -620,92 +635,92 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -717,147 +732,143 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="14" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="14" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="9" fillId="2" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="18" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="9" fillId="2" borderId="18" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="20" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="20" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="21" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="21" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="18" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="18" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="22" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="22" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="21" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="21" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="23" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="23" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="24" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="24" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="25" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="25" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="26" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="26" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="27" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="27" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="28" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="28" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="29" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="29" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="29" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="29" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="30" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="30" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="31" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="31" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="32" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="32" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="29" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="30" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="30" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="31" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="24" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="31" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="25" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="24" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="26" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="25" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="26" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="27" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="27" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="28" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="28" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="26" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="26" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="29" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="29" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="32" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="32" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1117,8 +1128,8 @@
   </sheetPr>
   <dimension ref="A1:AL105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E44" activeCellId="0" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2391,9 +2402,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="37"/>
-      <c r="B30" s="47" t="n">
-        <v>45839</v>
-      </c>
+      <c r="B30" s="47"/>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
       <c r="E30" s="46"/>
@@ -2916,7 +2925,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="38" t="n">
-        <v>39893</v>
+        <v>45089</v>
       </c>
       <c r="C43" s="38"/>
       <c r="D43" s="38"/>
@@ -2937,9 +2946,7 @@
       <c r="Q43" s="39"/>
       <c r="R43" s="39"/>
       <c r="S43" s="39"/>
-      <c r="T43" s="40" t="s">
-        <v>16</v>
-      </c>
+      <c r="T43" s="40"/>
       <c r="U43" s="40"/>
       <c r="V43" s="40"/>
       <c r="W43" s="41"/>
@@ -2955,11 +2962,9 @@
       <c r="AG43" s="43"/>
       <c r="AH43" s="43"/>
       <c r="AI43" s="43"/>
-      <c r="AJ43" s="48"/>
+      <c r="AJ43" s="43"/>
       <c r="AK43" s="43"/>
-      <c r="AL43" s="49" t="s">
-        <v>47</v>
-      </c>
+      <c r="AL43" s="48"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="37"/>
@@ -2967,7 +2972,7 @@
       <c r="C44" s="38"/>
       <c r="D44" s="38"/>
       <c r="E44" s="46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F44" s="46"/>
       <c r="G44" s="46"/>
@@ -2999,9 +3004,9 @@
       <c r="AG44" s="43"/>
       <c r="AH44" s="43"/>
       <c r="AI44" s="43"/>
-      <c r="AJ44" s="48"/>
+      <c r="AJ44" s="43"/>
       <c r="AK44" s="43"/>
-      <c r="AL44" s="49"/>
+      <c r="AL44" s="48"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="37"/>
@@ -3039,9 +3044,9 @@
       <c r="AG45" s="43"/>
       <c r="AH45" s="43"/>
       <c r="AI45" s="43"/>
-      <c r="AJ45" s="48"/>
+      <c r="AJ45" s="43"/>
       <c r="AK45" s="43"/>
-      <c r="AL45" s="49"/>
+      <c r="AL45" s="48"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="37"/>
@@ -3079,9 +3084,9 @@
       <c r="AG46" s="43"/>
       <c r="AH46" s="43"/>
       <c r="AI46" s="43"/>
-      <c r="AJ46" s="48"/>
+      <c r="AJ46" s="43"/>
       <c r="AK46" s="43"/>
-      <c r="AL46" s="49"/>
+      <c r="AL46" s="48"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="37"/>
@@ -3119,9 +3124,9 @@
       <c r="AG47" s="43"/>
       <c r="AH47" s="43"/>
       <c r="AI47" s="43"/>
-      <c r="AJ47" s="48"/>
+      <c r="AJ47" s="43"/>
       <c r="AK47" s="43"/>
-      <c r="AL47" s="49"/>
+      <c r="AL47" s="48"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="37"/>
@@ -3159,9 +3164,9 @@
       <c r="AG48" s="43"/>
       <c r="AH48" s="43"/>
       <c r="AI48" s="43"/>
-      <c r="AJ48" s="48"/>
+      <c r="AJ48" s="43"/>
       <c r="AK48" s="43"/>
-      <c r="AL48" s="49"/>
+      <c r="AL48" s="48"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="37"/>
@@ -3199,9 +3204,9 @@
       <c r="AG49" s="43"/>
       <c r="AH49" s="43"/>
       <c r="AI49" s="43"/>
-      <c r="AJ49" s="48"/>
+      <c r="AJ49" s="43"/>
       <c r="AK49" s="43"/>
-      <c r="AL49" s="49"/>
+      <c r="AL49" s="48"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="37"/>
@@ -3239,9 +3244,9 @@
       <c r="AG50" s="43"/>
       <c r="AH50" s="43"/>
       <c r="AI50" s="43"/>
-      <c r="AJ50" s="48"/>
+      <c r="AJ50" s="43"/>
       <c r="AK50" s="43"/>
-      <c r="AL50" s="49"/>
+      <c r="AL50" s="48"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="37"/>
@@ -3279,9 +3284,9 @@
       <c r="AG51" s="43"/>
       <c r="AH51" s="43"/>
       <c r="AI51" s="43"/>
-      <c r="AJ51" s="48"/>
+      <c r="AJ51" s="43"/>
       <c r="AK51" s="43"/>
-      <c r="AL51" s="49"/>
+      <c r="AL51" s="48"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="37"/>
@@ -3319,14 +3324,14 @@
       <c r="AG52" s="43"/>
       <c r="AH52" s="43"/>
       <c r="AI52" s="43"/>
-      <c r="AJ52" s="48"/>
+      <c r="AJ52" s="43"/>
       <c r="AK52" s="43"/>
-      <c r="AL52" s="49"/>
+      <c r="AL52" s="48"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="37"/>
       <c r="B53" s="47" t="n">
-        <v>44641</v>
+        <v>45838</v>
       </c>
       <c r="C53" s="47"/>
       <c r="D53" s="47"/>
@@ -3361,9 +3366,9 @@
       <c r="AG53" s="43"/>
       <c r="AH53" s="43"/>
       <c r="AI53" s="43"/>
-      <c r="AJ53" s="48"/>
+      <c r="AJ53" s="43"/>
       <c r="AK53" s="43"/>
-      <c r="AL53" s="49"/>
+      <c r="AL53" s="48"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="37"/>
@@ -3401,9 +3406,9 @@
       <c r="AG54" s="43"/>
       <c r="AH54" s="43"/>
       <c r="AI54" s="43"/>
-      <c r="AJ54" s="48"/>
+      <c r="AJ54" s="43"/>
       <c r="AK54" s="43"/>
-      <c r="AL54" s="49"/>
+      <c r="AL54" s="48"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="37"/>
@@ -3441,9 +3446,9 @@
       <c r="AG55" s="43"/>
       <c r="AH55" s="43"/>
       <c r="AI55" s="43"/>
-      <c r="AJ55" s="48"/>
+      <c r="AJ55" s="43"/>
       <c r="AK55" s="43"/>
-      <c r="AL55" s="49"/>
+      <c r="AL55" s="48"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="37"/>
@@ -3481,9 +3486,9 @@
       <c r="AG56" s="43"/>
       <c r="AH56" s="43"/>
       <c r="AI56" s="43"/>
-      <c r="AJ56" s="48"/>
+      <c r="AJ56" s="43"/>
       <c r="AK56" s="43"/>
-      <c r="AL56" s="49"/>
+      <c r="AL56" s="48"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="37"/>
@@ -3521,9 +3526,9 @@
       <c r="AG57" s="43"/>
       <c r="AH57" s="43"/>
       <c r="AI57" s="43"/>
-      <c r="AJ57" s="48"/>
+      <c r="AJ57" s="43"/>
       <c r="AK57" s="43"/>
-      <c r="AL57" s="49"/>
+      <c r="AL57" s="48"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="37"/>
@@ -3561,9 +3566,9 @@
       <c r="AG58" s="43"/>
       <c r="AH58" s="43"/>
       <c r="AI58" s="43"/>
-      <c r="AJ58" s="48"/>
+      <c r="AJ58" s="43"/>
       <c r="AK58" s="43"/>
-      <c r="AL58" s="49"/>
+      <c r="AL58" s="48"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="37"/>
@@ -3601,9 +3606,9 @@
       <c r="AG59" s="43"/>
       <c r="AH59" s="43"/>
       <c r="AI59" s="43"/>
-      <c r="AJ59" s="48"/>
+      <c r="AJ59" s="43"/>
       <c r="AK59" s="43"/>
-      <c r="AL59" s="49"/>
+      <c r="AL59" s="48"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="37"/>
@@ -3641,9 +3646,9 @@
       <c r="AG60" s="43"/>
       <c r="AH60" s="43"/>
       <c r="AI60" s="43"/>
-      <c r="AJ60" s="48"/>
+      <c r="AJ60" s="43"/>
       <c r="AK60" s="43"/>
-      <c r="AL60" s="49"/>
+      <c r="AL60" s="48"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="37"/>
@@ -3681,9 +3686,9 @@
       <c r="AG61" s="43"/>
       <c r="AH61" s="43"/>
       <c r="AI61" s="43"/>
-      <c r="AJ61" s="48"/>
+      <c r="AJ61" s="43"/>
       <c r="AK61" s="43"/>
-      <c r="AL61" s="49"/>
+      <c r="AL61" s="48"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="37"/>
@@ -3721,16 +3726,22 @@
       <c r="AG62" s="43"/>
       <c r="AH62" s="43"/>
       <c r="AI62" s="43"/>
-      <c r="AJ62" s="48"/>
+      <c r="AJ62" s="43"/>
       <c r="AK62" s="43"/>
-      <c r="AL62" s="49"/>
+      <c r="AL62" s="48"/>
     </row>
     <row r="63" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="37"/>
-      <c r="B63" s="38"/>
+      <c r="A63" s="37" t="n">
+        <v>3</v>
+      </c>
+      <c r="B63" s="38" t="n">
+        <v>39893</v>
+      </c>
       <c r="C63" s="38"/>
       <c r="D63" s="38"/>
-      <c r="E63" s="39"/>
+      <c r="E63" s="39" t="s">
+        <v>48</v>
+      </c>
       <c r="F63" s="39"/>
       <c r="G63" s="39"/>
       <c r="H63" s="39"/>
@@ -3745,7 +3756,9 @@
       <c r="Q63" s="39"/>
       <c r="R63" s="39"/>
       <c r="S63" s="39"/>
-      <c r="T63" s="40"/>
+      <c r="T63" s="40" t="s">
+        <v>16</v>
+      </c>
       <c r="U63" s="40"/>
       <c r="V63" s="40"/>
       <c r="W63" s="41"/>
@@ -3763,28 +3776,32 @@
       <c r="AI63" s="43"/>
       <c r="AJ63" s="43"/>
       <c r="AK63" s="43"/>
-      <c r="AL63" s="49"/>
+      <c r="AL63" s="48" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="37"/>
       <c r="B64" s="38"/>
       <c r="C64" s="38"/>
       <c r="D64" s="38"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="50"/>
-      <c r="G64" s="50"/>
-      <c r="H64" s="50"/>
-      <c r="I64" s="50"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="50"/>
-      <c r="L64" s="50"/>
-      <c r="M64" s="50"/>
-      <c r="N64" s="50"/>
-      <c r="O64" s="50"/>
-      <c r="P64" s="50"/>
-      <c r="Q64" s="50"/>
-      <c r="R64" s="50"/>
-      <c r="S64" s="50"/>
+      <c r="E64" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="49"/>
+      <c r="J64" s="49"/>
+      <c r="K64" s="49"/>
+      <c r="L64" s="49"/>
+      <c r="M64" s="49"/>
+      <c r="N64" s="49"/>
+      <c r="O64" s="49"/>
+      <c r="P64" s="49"/>
+      <c r="Q64" s="49"/>
+      <c r="R64" s="49"/>
+      <c r="S64" s="49"/>
       <c r="T64" s="40"/>
       <c r="U64" s="40"/>
       <c r="V64" s="40"/>
@@ -3803,30 +3820,30 @@
       <c r="AI64" s="43"/>
       <c r="AJ64" s="43"/>
       <c r="AK64" s="43"/>
-      <c r="AL64" s="49"/>
+      <c r="AL64" s="48"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="37"/>
       <c r="B65" s="38"/>
       <c r="C65" s="38"/>
       <c r="D65" s="38"/>
-      <c r="E65" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="F65" s="50"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="50"/>
-      <c r="I65" s="50"/>
-      <c r="J65" s="50"/>
-      <c r="K65" s="50"/>
-      <c r="L65" s="50"/>
-      <c r="M65" s="50"/>
-      <c r="N65" s="50"/>
-      <c r="O65" s="50"/>
-      <c r="P65" s="50"/>
-      <c r="Q65" s="50"/>
-      <c r="R65" s="50"/>
-      <c r="S65" s="50"/>
+      <c r="E65" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="49"/>
+      <c r="J65" s="49"/>
+      <c r="K65" s="49"/>
+      <c r="L65" s="49"/>
+      <c r="M65" s="49"/>
+      <c r="N65" s="49"/>
+      <c r="O65" s="49"/>
+      <c r="P65" s="49"/>
+      <c r="Q65" s="49"/>
+      <c r="R65" s="49"/>
+      <c r="S65" s="49"/>
       <c r="T65" s="40"/>
       <c r="U65" s="40"/>
       <c r="V65" s="40"/>
@@ -3845,30 +3862,30 @@
       <c r="AI65" s="43"/>
       <c r="AJ65" s="43"/>
       <c r="AK65" s="43"/>
-      <c r="AL65" s="49"/>
+      <c r="AL65" s="48"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="37"/>
       <c r="B66" s="38"/>
       <c r="C66" s="38"/>
       <c r="D66" s="38"/>
-      <c r="E66" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="F66" s="50"/>
-      <c r="G66" s="50"/>
-      <c r="H66" s="50"/>
-      <c r="I66" s="50"/>
-      <c r="J66" s="50"/>
-      <c r="K66" s="50"/>
-      <c r="L66" s="50"/>
-      <c r="M66" s="50"/>
-      <c r="N66" s="50"/>
-      <c r="O66" s="50"/>
-      <c r="P66" s="50"/>
-      <c r="Q66" s="50"/>
-      <c r="R66" s="50"/>
-      <c r="S66" s="50"/>
+      <c r="E66" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="49"/>
+      <c r="K66" s="49"/>
+      <c r="L66" s="49"/>
+      <c r="M66" s="49"/>
+      <c r="N66" s="49"/>
+      <c r="O66" s="49"/>
+      <c r="P66" s="49"/>
+      <c r="Q66" s="49"/>
+      <c r="R66" s="49"/>
+      <c r="S66" s="49"/>
       <c r="T66" s="40"/>
       <c r="U66" s="40"/>
       <c r="V66" s="40"/>
@@ -3887,30 +3904,30 @@
       <c r="AI66" s="43"/>
       <c r="AJ66" s="43"/>
       <c r="AK66" s="43"/>
-      <c r="AL66" s="49"/>
+      <c r="AL66" s="48"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="37"/>
       <c r="B67" s="38"/>
       <c r="C67" s="38"/>
       <c r="D67" s="38"/>
-      <c r="E67" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="F67" s="50"/>
-      <c r="G67" s="50"/>
-      <c r="H67" s="50"/>
-      <c r="I67" s="50"/>
-      <c r="J67" s="50"/>
-      <c r="K67" s="50"/>
-      <c r="L67" s="50"/>
-      <c r="M67" s="50"/>
-      <c r="N67" s="50"/>
-      <c r="O67" s="50"/>
-      <c r="P67" s="50"/>
-      <c r="Q67" s="50"/>
-      <c r="R67" s="50"/>
-      <c r="S67" s="50"/>
+      <c r="E67" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="F67" s="49"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="49"/>
+      <c r="I67" s="49"/>
+      <c r="J67" s="49"/>
+      <c r="K67" s="49"/>
+      <c r="L67" s="49"/>
+      <c r="M67" s="49"/>
+      <c r="N67" s="49"/>
+      <c r="O67" s="49"/>
+      <c r="P67" s="49"/>
+      <c r="Q67" s="49"/>
+      <c r="R67" s="49"/>
+      <c r="S67" s="49"/>
       <c r="T67" s="40"/>
       <c r="U67" s="40"/>
       <c r="V67" s="40"/>
@@ -3929,28 +3946,28 @@
       <c r="AI67" s="43"/>
       <c r="AJ67" s="43"/>
       <c r="AK67" s="43"/>
-      <c r="AL67" s="49"/>
+      <c r="AL67" s="48"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="37"/>
       <c r="B68" s="38"/>
       <c r="C68" s="38"/>
       <c r="D68" s="38"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="50"/>
-      <c r="I68" s="50"/>
-      <c r="J68" s="50"/>
-      <c r="K68" s="50"/>
-      <c r="L68" s="50"/>
-      <c r="M68" s="50"/>
-      <c r="N68" s="50"/>
-      <c r="O68" s="50"/>
-      <c r="P68" s="50"/>
-      <c r="Q68" s="50"/>
-      <c r="R68" s="50"/>
-      <c r="S68" s="50"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="49"/>
+      <c r="J68" s="49"/>
+      <c r="K68" s="49"/>
+      <c r="L68" s="49"/>
+      <c r="M68" s="49"/>
+      <c r="N68" s="49"/>
+      <c r="O68" s="49"/>
+      <c r="P68" s="49"/>
+      <c r="Q68" s="49"/>
+      <c r="R68" s="49"/>
+      <c r="S68" s="49"/>
       <c r="T68" s="40"/>
       <c r="U68" s="40"/>
       <c r="V68" s="40"/>
@@ -3969,30 +3986,30 @@
       <c r="AI68" s="43"/>
       <c r="AJ68" s="43"/>
       <c r="AK68" s="43"/>
-      <c r="AL68" s="49"/>
+      <c r="AL68" s="48"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="37"/>
       <c r="B69" s="38"/>
       <c r="C69" s="38"/>
       <c r="D69" s="38"/>
-      <c r="E69" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="F69" s="50"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="50"/>
-      <c r="I69" s="50"/>
-      <c r="J69" s="50"/>
-      <c r="K69" s="50"/>
-      <c r="L69" s="50"/>
-      <c r="M69" s="50"/>
-      <c r="N69" s="50"/>
-      <c r="O69" s="50"/>
-      <c r="P69" s="50"/>
-      <c r="Q69" s="50"/>
-      <c r="R69" s="50"/>
-      <c r="S69" s="50"/>
+      <c r="E69" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="F69" s="49"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="49"/>
+      <c r="J69" s="49"/>
+      <c r="K69" s="49"/>
+      <c r="L69" s="49"/>
+      <c r="M69" s="49"/>
+      <c r="N69" s="49"/>
+      <c r="O69" s="49"/>
+      <c r="P69" s="49"/>
+      <c r="Q69" s="49"/>
+      <c r="R69" s="49"/>
+      <c r="S69" s="49"/>
       <c r="T69" s="40"/>
       <c r="U69" s="40"/>
       <c r="V69" s="40"/>
@@ -4011,30 +4028,30 @@
       <c r="AI69" s="43"/>
       <c r="AJ69" s="43"/>
       <c r="AK69" s="43"/>
-      <c r="AL69" s="49"/>
+      <c r="AL69" s="48"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="37"/>
       <c r="B70" s="38"/>
       <c r="C70" s="38"/>
       <c r="D70" s="38"/>
-      <c r="E70" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="F70" s="50"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="50"/>
-      <c r="I70" s="50"/>
-      <c r="J70" s="50"/>
-      <c r="K70" s="50"/>
-      <c r="L70" s="50"/>
-      <c r="M70" s="50"/>
-      <c r="N70" s="50"/>
-      <c r="O70" s="50"/>
-      <c r="P70" s="50"/>
-      <c r="Q70" s="50"/>
-      <c r="R70" s="50"/>
-      <c r="S70" s="50"/>
+      <c r="E70" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="F70" s="49"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="49"/>
+      <c r="I70" s="49"/>
+      <c r="J70" s="49"/>
+      <c r="K70" s="49"/>
+      <c r="L70" s="49"/>
+      <c r="M70" s="49"/>
+      <c r="N70" s="49"/>
+      <c r="O70" s="49"/>
+      <c r="P70" s="49"/>
+      <c r="Q70" s="49"/>
+      <c r="R70" s="49"/>
+      <c r="S70" s="49"/>
       <c r="T70" s="40"/>
       <c r="U70" s="40"/>
       <c r="V70" s="40"/>
@@ -4053,30 +4070,30 @@
       <c r="AI70" s="43"/>
       <c r="AJ70" s="43"/>
       <c r="AK70" s="43"/>
-      <c r="AL70" s="49"/>
+      <c r="AL70" s="48"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="37"/>
       <c r="B71" s="38"/>
       <c r="C71" s="38"/>
       <c r="D71" s="38"/>
-      <c r="E71" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="F71" s="50"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="50"/>
-      <c r="J71" s="50"/>
-      <c r="K71" s="50"/>
-      <c r="L71" s="50"/>
-      <c r="M71" s="50"/>
-      <c r="N71" s="50"/>
-      <c r="O71" s="50"/>
-      <c r="P71" s="50"/>
-      <c r="Q71" s="50"/>
-      <c r="R71" s="50"/>
-      <c r="S71" s="50"/>
+      <c r="E71" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="F71" s="49"/>
+      <c r="G71" s="49"/>
+      <c r="H71" s="49"/>
+      <c r="I71" s="49"/>
+      <c r="J71" s="49"/>
+      <c r="K71" s="49"/>
+      <c r="L71" s="49"/>
+      <c r="M71" s="49"/>
+      <c r="N71" s="49"/>
+      <c r="O71" s="49"/>
+      <c r="P71" s="49"/>
+      <c r="Q71" s="49"/>
+      <c r="R71" s="49"/>
+      <c r="S71" s="49"/>
       <c r="T71" s="40"/>
       <c r="U71" s="40"/>
       <c r="V71" s="40"/>
@@ -4095,30 +4112,30 @@
       <c r="AI71" s="43"/>
       <c r="AJ71" s="43"/>
       <c r="AK71" s="43"/>
-      <c r="AL71" s="49"/>
+      <c r="AL71" s="48"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="37"/>
       <c r="B72" s="38"/>
       <c r="C72" s="38"/>
       <c r="D72" s="38"/>
-      <c r="E72" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="F72" s="50"/>
-      <c r="G72" s="50"/>
-      <c r="H72" s="50"/>
-      <c r="I72" s="50"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="50"/>
-      <c r="L72" s="50"/>
-      <c r="M72" s="50"/>
-      <c r="N72" s="50"/>
-      <c r="O72" s="50"/>
-      <c r="P72" s="50"/>
-      <c r="Q72" s="50"/>
-      <c r="R72" s="50"/>
-      <c r="S72" s="50"/>
+      <c r="E72" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="F72" s="49"/>
+      <c r="G72" s="49"/>
+      <c r="H72" s="49"/>
+      <c r="I72" s="49"/>
+      <c r="J72" s="49"/>
+      <c r="K72" s="49"/>
+      <c r="L72" s="49"/>
+      <c r="M72" s="49"/>
+      <c r="N72" s="49"/>
+      <c r="O72" s="49"/>
+      <c r="P72" s="49"/>
+      <c r="Q72" s="49"/>
+      <c r="R72" s="49"/>
+      <c r="S72" s="49"/>
       <c r="T72" s="40"/>
       <c r="U72" s="40"/>
       <c r="V72" s="40"/>
@@ -4137,30 +4154,30 @@
       <c r="AI72" s="43"/>
       <c r="AJ72" s="43"/>
       <c r="AK72" s="43"/>
-      <c r="AL72" s="49"/>
+      <c r="AL72" s="48"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="37"/>
       <c r="B73" s="38"/>
       <c r="C73" s="38"/>
       <c r="D73" s="38"/>
-      <c r="E73" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F73" s="50"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="50"/>
-      <c r="L73" s="50"/>
-      <c r="M73" s="50"/>
-      <c r="N73" s="50"/>
-      <c r="O73" s="50"/>
-      <c r="P73" s="50"/>
-      <c r="Q73" s="50"/>
-      <c r="R73" s="50"/>
-      <c r="S73" s="50"/>
+      <c r="E73" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="F73" s="49"/>
+      <c r="G73" s="49"/>
+      <c r="H73" s="49"/>
+      <c r="I73" s="49"/>
+      <c r="J73" s="49"/>
+      <c r="K73" s="49"/>
+      <c r="L73" s="49"/>
+      <c r="M73" s="49"/>
+      <c r="N73" s="49"/>
+      <c r="O73" s="49"/>
+      <c r="P73" s="49"/>
+      <c r="Q73" s="49"/>
+      <c r="R73" s="49"/>
+      <c r="S73" s="49"/>
       <c r="T73" s="40"/>
       <c r="U73" s="40"/>
       <c r="V73" s="40"/>
@@ -4179,28 +4196,28 @@
       <c r="AI73" s="43"/>
       <c r="AJ73" s="43"/>
       <c r="AK73" s="43"/>
-      <c r="AL73" s="49"/>
+      <c r="AL73" s="48"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="37"/>
       <c r="B74" s="38"/>
       <c r="C74" s="38"/>
       <c r="D74" s="38"/>
-      <c r="E74" s="50"/>
-      <c r="F74" s="50"/>
-      <c r="G74" s="50"/>
-      <c r="H74" s="50"/>
-      <c r="I74" s="50"/>
-      <c r="J74" s="50"/>
-      <c r="K74" s="50"/>
-      <c r="L74" s="50"/>
-      <c r="M74" s="50"/>
-      <c r="N74" s="50"/>
-      <c r="O74" s="50"/>
-      <c r="P74" s="50"/>
-      <c r="Q74" s="50"/>
-      <c r="R74" s="50"/>
-      <c r="S74" s="50"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="49"/>
+      <c r="I74" s="49"/>
+      <c r="J74" s="49"/>
+      <c r="K74" s="49"/>
+      <c r="L74" s="49"/>
+      <c r="M74" s="49"/>
+      <c r="N74" s="49"/>
+      <c r="O74" s="49"/>
+      <c r="P74" s="49"/>
+      <c r="Q74" s="49"/>
+      <c r="R74" s="49"/>
+      <c r="S74" s="49"/>
       <c r="T74" s="40"/>
       <c r="U74" s="40"/>
       <c r="V74" s="40"/>
@@ -4219,30 +4236,32 @@
       <c r="AI74" s="43"/>
       <c r="AJ74" s="43"/>
       <c r="AK74" s="43"/>
-      <c r="AL74" s="49"/>
+      <c r="AL74" s="48"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="37"/>
-      <c r="B75" s="47"/>
+      <c r="B75" s="47" t="n">
+        <v>44641</v>
+      </c>
       <c r="C75" s="47"/>
       <c r="D75" s="47"/>
-      <c r="E75" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F75" s="50"/>
-      <c r="G75" s="50"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="50"/>
-      <c r="J75" s="50"/>
-      <c r="K75" s="50"/>
-      <c r="L75" s="50"/>
-      <c r="M75" s="50"/>
-      <c r="N75" s="50"/>
-      <c r="O75" s="50"/>
-      <c r="P75" s="50"/>
-      <c r="Q75" s="50"/>
-      <c r="R75" s="50"/>
-      <c r="S75" s="50"/>
+      <c r="E75" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="49"/>
+      <c r="J75" s="49"/>
+      <c r="K75" s="49"/>
+      <c r="L75" s="49"/>
+      <c r="M75" s="49"/>
+      <c r="N75" s="49"/>
+      <c r="O75" s="49"/>
+      <c r="P75" s="49"/>
+      <c r="Q75" s="49"/>
+      <c r="R75" s="49"/>
+      <c r="S75" s="49"/>
       <c r="T75" s="40"/>
       <c r="U75" s="40"/>
       <c r="V75" s="40"/>
@@ -4261,30 +4280,30 @@
       <c r="AI75" s="43"/>
       <c r="AJ75" s="43"/>
       <c r="AK75" s="43"/>
-      <c r="AL75" s="49"/>
+      <c r="AL75" s="48"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="37"/>
       <c r="B76" s="47"/>
       <c r="C76" s="47"/>
       <c r="D76" s="47"/>
-      <c r="E76" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="F76" s="50"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="50"/>
-      <c r="I76" s="50"/>
-      <c r="J76" s="50"/>
-      <c r="K76" s="50"/>
-      <c r="L76" s="50"/>
-      <c r="M76" s="50"/>
-      <c r="N76" s="50"/>
-      <c r="O76" s="50"/>
-      <c r="P76" s="50"/>
-      <c r="Q76" s="50"/>
-      <c r="R76" s="50"/>
-      <c r="S76" s="50"/>
+      <c r="E76" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="F76" s="49"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="49"/>
+      <c r="I76" s="49"/>
+      <c r="J76" s="49"/>
+      <c r="K76" s="49"/>
+      <c r="L76" s="49"/>
+      <c r="M76" s="49"/>
+      <c r="N76" s="49"/>
+      <c r="O76" s="49"/>
+      <c r="P76" s="49"/>
+      <c r="Q76" s="49"/>
+      <c r="R76" s="49"/>
+      <c r="S76" s="49"/>
       <c r="T76" s="40"/>
       <c r="U76" s="40"/>
       <c r="V76" s="40"/>
@@ -4303,28 +4322,28 @@
       <c r="AI76" s="43"/>
       <c r="AJ76" s="43"/>
       <c r="AK76" s="43"/>
-      <c r="AL76" s="49"/>
+      <c r="AL76" s="48"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="37"/>
       <c r="B77" s="47"/>
       <c r="C77" s="47"/>
       <c r="D77" s="47"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="50"/>
-      <c r="H77" s="50"/>
-      <c r="I77" s="50"/>
-      <c r="J77" s="50"/>
-      <c r="K77" s="50"/>
-      <c r="L77" s="50"/>
-      <c r="M77" s="50"/>
-      <c r="N77" s="50"/>
-      <c r="O77" s="50"/>
-      <c r="P77" s="50"/>
-      <c r="Q77" s="50"/>
-      <c r="R77" s="50"/>
-      <c r="S77" s="50"/>
+      <c r="E77" s="49"/>
+      <c r="F77" s="49"/>
+      <c r="G77" s="49"/>
+      <c r="H77" s="49"/>
+      <c r="I77" s="49"/>
+      <c r="J77" s="49"/>
+      <c r="K77" s="49"/>
+      <c r="L77" s="49"/>
+      <c r="M77" s="49"/>
+      <c r="N77" s="49"/>
+      <c r="O77" s="49"/>
+      <c r="P77" s="49"/>
+      <c r="Q77" s="49"/>
+      <c r="R77" s="49"/>
+      <c r="S77" s="49"/>
       <c r="T77" s="40"/>
       <c r="U77" s="40"/>
       <c r="V77" s="40"/>
@@ -4343,30 +4362,30 @@
       <c r="AI77" s="43"/>
       <c r="AJ77" s="43"/>
       <c r="AK77" s="43"/>
-      <c r="AL77" s="49"/>
+      <c r="AL77" s="48"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="37"/>
       <c r="B78" s="47"/>
       <c r="C78" s="47"/>
       <c r="D78" s="47"/>
-      <c r="E78" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="F78" s="50"/>
-      <c r="G78" s="50"/>
-      <c r="H78" s="50"/>
-      <c r="I78" s="50"/>
-      <c r="J78" s="50"/>
-      <c r="K78" s="50"/>
-      <c r="L78" s="50"/>
-      <c r="M78" s="50"/>
-      <c r="N78" s="50"/>
-      <c r="O78" s="50"/>
-      <c r="P78" s="50"/>
-      <c r="Q78" s="50"/>
-      <c r="R78" s="50"/>
-      <c r="S78" s="50"/>
+      <c r="E78" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="F78" s="49"/>
+      <c r="G78" s="49"/>
+      <c r="H78" s="49"/>
+      <c r="I78" s="49"/>
+      <c r="J78" s="49"/>
+      <c r="K78" s="49"/>
+      <c r="L78" s="49"/>
+      <c r="M78" s="49"/>
+      <c r="N78" s="49"/>
+      <c r="O78" s="49"/>
+      <c r="P78" s="49"/>
+      <c r="Q78" s="49"/>
+      <c r="R78" s="49"/>
+      <c r="S78" s="49"/>
       <c r="T78" s="40"/>
       <c r="U78" s="40"/>
       <c r="V78" s="40"/>
@@ -4385,30 +4404,30 @@
       <c r="AI78" s="43"/>
       <c r="AJ78" s="43"/>
       <c r="AK78" s="43"/>
-      <c r="AL78" s="49"/>
+      <c r="AL78" s="48"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="37"/>
       <c r="B79" s="47"/>
       <c r="C79" s="47"/>
       <c r="D79" s="47"/>
-      <c r="E79" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="F79" s="50"/>
-      <c r="G79" s="50"/>
-      <c r="H79" s="50"/>
-      <c r="I79" s="50"/>
-      <c r="J79" s="50"/>
-      <c r="K79" s="50"/>
-      <c r="L79" s="50"/>
-      <c r="M79" s="50"/>
-      <c r="N79" s="50"/>
-      <c r="O79" s="50"/>
-      <c r="P79" s="50"/>
-      <c r="Q79" s="50"/>
-      <c r="R79" s="50"/>
-      <c r="S79" s="50"/>
+      <c r="E79" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="F79" s="49"/>
+      <c r="G79" s="49"/>
+      <c r="H79" s="49"/>
+      <c r="I79" s="49"/>
+      <c r="J79" s="49"/>
+      <c r="K79" s="49"/>
+      <c r="L79" s="49"/>
+      <c r="M79" s="49"/>
+      <c r="N79" s="49"/>
+      <c r="O79" s="49"/>
+      <c r="P79" s="49"/>
+      <c r="Q79" s="49"/>
+      <c r="R79" s="49"/>
+      <c r="S79" s="49"/>
       <c r="T79" s="40"/>
       <c r="U79" s="40"/>
       <c r="V79" s="40"/>
@@ -4427,28 +4446,28 @@
       <c r="AI79" s="43"/>
       <c r="AJ79" s="43"/>
       <c r="AK79" s="43"/>
-      <c r="AL79" s="49"/>
+      <c r="AL79" s="48"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="37"/>
       <c r="B80" s="47"/>
       <c r="C80" s="47"/>
       <c r="D80" s="47"/>
-      <c r="E80" s="50"/>
-      <c r="F80" s="50"/>
-      <c r="G80" s="50"/>
-      <c r="H80" s="50"/>
-      <c r="I80" s="50"/>
-      <c r="J80" s="50"/>
-      <c r="K80" s="50"/>
-      <c r="L80" s="50"/>
-      <c r="M80" s="50"/>
-      <c r="N80" s="50"/>
-      <c r="O80" s="50"/>
-      <c r="P80" s="50"/>
-      <c r="Q80" s="50"/>
-      <c r="R80" s="50"/>
-      <c r="S80" s="50"/>
+      <c r="E80" s="49"/>
+      <c r="F80" s="49"/>
+      <c r="G80" s="49"/>
+      <c r="H80" s="49"/>
+      <c r="I80" s="49"/>
+      <c r="J80" s="49"/>
+      <c r="K80" s="49"/>
+      <c r="L80" s="49"/>
+      <c r="M80" s="49"/>
+      <c r="N80" s="49"/>
+      <c r="O80" s="49"/>
+      <c r="P80" s="49"/>
+      <c r="Q80" s="49"/>
+      <c r="R80" s="49"/>
+      <c r="S80" s="49"/>
       <c r="T80" s="40"/>
       <c r="U80" s="40"/>
       <c r="V80" s="40"/>
@@ -4467,28 +4486,28 @@
       <c r="AI80" s="43"/>
       <c r="AJ80" s="43"/>
       <c r="AK80" s="43"/>
-      <c r="AL80" s="49"/>
+      <c r="AL80" s="48"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="37"/>
       <c r="B81" s="47"/>
       <c r="C81" s="47"/>
       <c r="D81" s="47"/>
-      <c r="E81" s="50"/>
-      <c r="F81" s="50"/>
-      <c r="G81" s="50"/>
-      <c r="H81" s="50"/>
-      <c r="I81" s="50"/>
-      <c r="J81" s="50"/>
-      <c r="K81" s="50"/>
-      <c r="L81" s="50"/>
-      <c r="M81" s="50"/>
-      <c r="N81" s="50"/>
-      <c r="O81" s="50"/>
-      <c r="P81" s="50"/>
-      <c r="Q81" s="50"/>
-      <c r="R81" s="50"/>
-      <c r="S81" s="50"/>
+      <c r="E81" s="49"/>
+      <c r="F81" s="49"/>
+      <c r="G81" s="49"/>
+      <c r="H81" s="49"/>
+      <c r="I81" s="49"/>
+      <c r="J81" s="49"/>
+      <c r="K81" s="49"/>
+      <c r="L81" s="49"/>
+      <c r="M81" s="49"/>
+      <c r="N81" s="49"/>
+      <c r="O81" s="49"/>
+      <c r="P81" s="49"/>
+      <c r="Q81" s="49"/>
+      <c r="R81" s="49"/>
+      <c r="S81" s="49"/>
       <c r="T81" s="40"/>
       <c r="U81" s="40"/>
       <c r="V81" s="40"/>
@@ -4507,28 +4526,28 @@
       <c r="AI81" s="43"/>
       <c r="AJ81" s="43"/>
       <c r="AK81" s="43"/>
-      <c r="AL81" s="49"/>
+      <c r="AL81" s="48"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="37"/>
       <c r="B82" s="47"/>
       <c r="C82" s="47"/>
       <c r="D82" s="47"/>
-      <c r="E82" s="50"/>
-      <c r="F82" s="50"/>
-      <c r="G82" s="50"/>
-      <c r="H82" s="50"/>
-      <c r="I82" s="50"/>
-      <c r="J82" s="50"/>
-      <c r="K82" s="50"/>
-      <c r="L82" s="50"/>
-      <c r="M82" s="50"/>
-      <c r="N82" s="50"/>
-      <c r="O82" s="50"/>
-      <c r="P82" s="50"/>
-      <c r="Q82" s="50"/>
-      <c r="R82" s="50"/>
-      <c r="S82" s="50"/>
+      <c r="E82" s="49"/>
+      <c r="F82" s="49"/>
+      <c r="G82" s="49"/>
+      <c r="H82" s="49"/>
+      <c r="I82" s="49"/>
+      <c r="J82" s="49"/>
+      <c r="K82" s="49"/>
+      <c r="L82" s="49"/>
+      <c r="M82" s="49"/>
+      <c r="N82" s="49"/>
+      <c r="O82" s="49"/>
+      <c r="P82" s="49"/>
+      <c r="Q82" s="49"/>
+      <c r="R82" s="49"/>
+      <c r="S82" s="49"/>
       <c r="T82" s="40"/>
       <c r="U82" s="40"/>
       <c r="V82" s="40"/>
@@ -4547,28 +4566,28 @@
       <c r="AI82" s="43"/>
       <c r="AJ82" s="43"/>
       <c r="AK82" s="43"/>
-      <c r="AL82" s="49"/>
+      <c r="AL82" s="48"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="37"/>
       <c r="B83" s="47"/>
       <c r="C83" s="47"/>
       <c r="D83" s="47"/>
-      <c r="E83" s="50"/>
-      <c r="F83" s="50"/>
-      <c r="G83" s="50"/>
-      <c r="H83" s="50"/>
-      <c r="I83" s="50"/>
-      <c r="J83" s="50"/>
-      <c r="K83" s="50"/>
-      <c r="L83" s="50"/>
-      <c r="M83" s="50"/>
-      <c r="N83" s="50"/>
-      <c r="O83" s="50"/>
-      <c r="P83" s="50"/>
-      <c r="Q83" s="50"/>
-      <c r="R83" s="50"/>
-      <c r="S83" s="50"/>
+      <c r="E83" s="49"/>
+      <c r="F83" s="49"/>
+      <c r="G83" s="49"/>
+      <c r="H83" s="49"/>
+      <c r="I83" s="49"/>
+      <c r="J83" s="49"/>
+      <c r="K83" s="49"/>
+      <c r="L83" s="49"/>
+      <c r="M83" s="49"/>
+      <c r="N83" s="49"/>
+      <c r="O83" s="49"/>
+      <c r="P83" s="49"/>
+      <c r="Q83" s="49"/>
+      <c r="R83" s="49"/>
+      <c r="S83" s="49"/>
       <c r="T83" s="40"/>
       <c r="U83" s="40"/>
       <c r="V83" s="40"/>
@@ -4587,28 +4606,28 @@
       <c r="AI83" s="43"/>
       <c r="AJ83" s="43"/>
       <c r="AK83" s="43"/>
-      <c r="AL83" s="49"/>
+      <c r="AL83" s="48"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="37"/>
       <c r="B84" s="47"/>
       <c r="C84" s="47"/>
       <c r="D84" s="47"/>
-      <c r="E84" s="50"/>
-      <c r="F84" s="50"/>
-      <c r="G84" s="50"/>
-      <c r="H84" s="50"/>
-      <c r="I84" s="50"/>
-      <c r="J84" s="50"/>
-      <c r="K84" s="50"/>
-      <c r="L84" s="50"/>
-      <c r="M84" s="50"/>
-      <c r="N84" s="50"/>
-      <c r="O84" s="50"/>
-      <c r="P84" s="50"/>
-      <c r="Q84" s="50"/>
-      <c r="R84" s="50"/>
-      <c r="S84" s="50"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="49"/>
+      <c r="I84" s="49"/>
+      <c r="J84" s="49"/>
+      <c r="K84" s="49"/>
+      <c r="L84" s="49"/>
+      <c r="M84" s="49"/>
+      <c r="N84" s="49"/>
+      <c r="O84" s="49"/>
+      <c r="P84" s="49"/>
+      <c r="Q84" s="49"/>
+      <c r="R84" s="49"/>
+      <c r="S84" s="49"/>
       <c r="T84" s="40"/>
       <c r="U84" s="40"/>
       <c r="V84" s="40"/>
@@ -4627,28 +4646,28 @@
       <c r="AI84" s="43"/>
       <c r="AJ84" s="43"/>
       <c r="AK84" s="43"/>
-      <c r="AL84" s="49"/>
+      <c r="AL84" s="48"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="37"/>
       <c r="B85" s="47"/>
       <c r="C85" s="47"/>
       <c r="D85" s="47"/>
-      <c r="E85" s="50"/>
-      <c r="F85" s="50"/>
-      <c r="G85" s="50"/>
-      <c r="H85" s="50"/>
-      <c r="I85" s="50"/>
-      <c r="J85" s="50"/>
-      <c r="K85" s="50"/>
-      <c r="L85" s="50"/>
-      <c r="M85" s="50"/>
-      <c r="N85" s="50"/>
-      <c r="O85" s="50"/>
-      <c r="P85" s="50"/>
-      <c r="Q85" s="50"/>
-      <c r="R85" s="50"/>
-      <c r="S85" s="50"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="49"/>
+      <c r="I85" s="49"/>
+      <c r="J85" s="49"/>
+      <c r="K85" s="49"/>
+      <c r="L85" s="49"/>
+      <c r="M85" s="49"/>
+      <c r="N85" s="49"/>
+      <c r="O85" s="49"/>
+      <c r="P85" s="49"/>
+      <c r="Q85" s="49"/>
+      <c r="R85" s="49"/>
+      <c r="S85" s="49"/>
       <c r="T85" s="40"/>
       <c r="U85" s="40"/>
       <c r="V85" s="40"/>
@@ -4667,28 +4686,28 @@
       <c r="AI85" s="43"/>
       <c r="AJ85" s="43"/>
       <c r="AK85" s="43"/>
-      <c r="AL85" s="49"/>
+      <c r="AL85" s="48"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="37"/>
       <c r="B86" s="47"/>
       <c r="C86" s="47"/>
       <c r="D86" s="47"/>
-      <c r="E86" s="50"/>
-      <c r="F86" s="50"/>
-      <c r="G86" s="50"/>
-      <c r="H86" s="50"/>
-      <c r="I86" s="50"/>
-      <c r="J86" s="50"/>
-      <c r="K86" s="50"/>
-      <c r="L86" s="50"/>
-      <c r="M86" s="50"/>
-      <c r="N86" s="50"/>
-      <c r="O86" s="50"/>
-      <c r="P86" s="50"/>
-      <c r="Q86" s="50"/>
-      <c r="R86" s="50"/>
-      <c r="S86" s="50"/>
+      <c r="E86" s="49"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="49"/>
+      <c r="H86" s="49"/>
+      <c r="I86" s="49"/>
+      <c r="J86" s="49"/>
+      <c r="K86" s="49"/>
+      <c r="L86" s="49"/>
+      <c r="M86" s="49"/>
+      <c r="N86" s="49"/>
+      <c r="O86" s="49"/>
+      <c r="P86" s="49"/>
+      <c r="Q86" s="49"/>
+      <c r="R86" s="49"/>
+      <c r="S86" s="49"/>
       <c r="T86" s="40"/>
       <c r="U86" s="40"/>
       <c r="V86" s="40"/>
@@ -4707,42 +4726,42 @@
       <c r="AI86" s="43"/>
       <c r="AJ86" s="43"/>
       <c r="AK86" s="43"/>
-      <c r="AL86" s="49"/>
+      <c r="AL86" s="48"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="51"/>
-      <c r="B87" s="52"/>
-      <c r="C87" s="52"/>
-      <c r="D87" s="52"/>
-      <c r="E87" s="53"/>
-      <c r="F87" s="53"/>
-      <c r="G87" s="53"/>
-      <c r="H87" s="53"/>
-      <c r="I87" s="53"/>
-      <c r="J87" s="53"/>
-      <c r="K87" s="53"/>
-      <c r="L87" s="53"/>
-      <c r="M87" s="53"/>
-      <c r="N87" s="53"/>
-      <c r="O87" s="53"/>
-      <c r="P87" s="53"/>
-      <c r="Q87" s="53"/>
-      <c r="R87" s="53"/>
-      <c r="S87" s="53"/>
-      <c r="T87" s="54"/>
-      <c r="U87" s="54"/>
-      <c r="V87" s="54"/>
-      <c r="W87" s="55"/>
-      <c r="X87" s="55"/>
-      <c r="Y87" s="55"/>
-      <c r="Z87" s="55"/>
-      <c r="AA87" s="55"/>
-      <c r="AB87" s="55"/>
-      <c r="AC87" s="56"/>
-      <c r="AD87" s="56"/>
-      <c r="AE87" s="56"/>
-      <c r="AF87" s="57"/>
-      <c r="AG87" s="58"/>
+      <c r="A87" s="50"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="52"/>
+      <c r="F87" s="52"/>
+      <c r="G87" s="52"/>
+      <c r="H87" s="52"/>
+      <c r="I87" s="52"/>
+      <c r="J87" s="52"/>
+      <c r="K87" s="52"/>
+      <c r="L87" s="52"/>
+      <c r="M87" s="52"/>
+      <c r="N87" s="52"/>
+      <c r="O87" s="52"/>
+      <c r="P87" s="52"/>
+      <c r="Q87" s="52"/>
+      <c r="R87" s="52"/>
+      <c r="S87" s="52"/>
+      <c r="T87" s="53"/>
+      <c r="U87" s="53"/>
+      <c r="V87" s="53"/>
+      <c r="W87" s="54"/>
+      <c r="X87" s="54"/>
+      <c r="Y87" s="54"/>
+      <c r="Z87" s="54"/>
+      <c r="AA87" s="54"/>
+      <c r="AB87" s="54"/>
+      <c r="AC87" s="55"/>
+      <c r="AD87" s="55"/>
+      <c r="AE87" s="55"/>
+      <c r="AF87" s="56"/>
+      <c r="AG87" s="57"/>
       <c r="AH87" s="43"/>
       <c r="AI87" s="44"/>
       <c r="AJ87" s="44"/>
@@ -4750,39 +4769,39 @@
       <c r="AL87" s="45"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="51"/>
-      <c r="B88" s="52"/>
-      <c r="C88" s="52"/>
-      <c r="D88" s="52"/>
-      <c r="E88" s="50"/>
-      <c r="F88" s="50"/>
-      <c r="G88" s="50"/>
-      <c r="H88" s="50"/>
-      <c r="I88" s="50"/>
-      <c r="J88" s="50"/>
-      <c r="K88" s="50"/>
-      <c r="L88" s="50"/>
-      <c r="M88" s="50"/>
-      <c r="N88" s="50"/>
-      <c r="O88" s="50"/>
-      <c r="P88" s="50"/>
-      <c r="Q88" s="50"/>
-      <c r="R88" s="50"/>
-      <c r="S88" s="50"/>
-      <c r="T88" s="54"/>
-      <c r="U88" s="54"/>
-      <c r="V88" s="54"/>
-      <c r="W88" s="55"/>
-      <c r="X88" s="55"/>
-      <c r="Y88" s="55"/>
-      <c r="Z88" s="55"/>
-      <c r="AA88" s="55"/>
-      <c r="AB88" s="55"/>
-      <c r="AC88" s="56"/>
-      <c r="AD88" s="56"/>
-      <c r="AE88" s="56"/>
-      <c r="AF88" s="57"/>
-      <c r="AG88" s="58"/>
+      <c r="A88" s="50"/>
+      <c r="B88" s="51"/>
+      <c r="C88" s="51"/>
+      <c r="D88" s="51"/>
+      <c r="E88" s="49"/>
+      <c r="F88" s="49"/>
+      <c r="G88" s="49"/>
+      <c r="H88" s="49"/>
+      <c r="I88" s="49"/>
+      <c r="J88" s="49"/>
+      <c r="K88" s="49"/>
+      <c r="L88" s="49"/>
+      <c r="M88" s="49"/>
+      <c r="N88" s="49"/>
+      <c r="O88" s="49"/>
+      <c r="P88" s="49"/>
+      <c r="Q88" s="49"/>
+      <c r="R88" s="49"/>
+      <c r="S88" s="49"/>
+      <c r="T88" s="53"/>
+      <c r="U88" s="53"/>
+      <c r="V88" s="53"/>
+      <c r="W88" s="54"/>
+      <c r="X88" s="54"/>
+      <c r="Y88" s="54"/>
+      <c r="Z88" s="54"/>
+      <c r="AA88" s="54"/>
+      <c r="AB88" s="54"/>
+      <c r="AC88" s="55"/>
+      <c r="AD88" s="55"/>
+      <c r="AE88" s="55"/>
+      <c r="AF88" s="56"/>
+      <c r="AG88" s="57"/>
       <c r="AH88" s="43"/>
       <c r="AI88" s="44"/>
       <c r="AJ88" s="44"/>
@@ -4790,39 +4809,39 @@
       <c r="AL88" s="45"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="51"/>
-      <c r="B89" s="52"/>
-      <c r="C89" s="52"/>
-      <c r="D89" s="52"/>
-      <c r="E89" s="50"/>
-      <c r="F89" s="50"/>
-      <c r="G89" s="50"/>
-      <c r="H89" s="50"/>
-      <c r="I89" s="50"/>
-      <c r="J89" s="50"/>
-      <c r="K89" s="50"/>
-      <c r="L89" s="50"/>
-      <c r="M89" s="50"/>
-      <c r="N89" s="50"/>
-      <c r="O89" s="50"/>
-      <c r="P89" s="50"/>
-      <c r="Q89" s="50"/>
-      <c r="R89" s="50"/>
-      <c r="S89" s="50"/>
-      <c r="T89" s="54"/>
-      <c r="U89" s="54"/>
-      <c r="V89" s="54"/>
-      <c r="W89" s="55"/>
-      <c r="X89" s="55"/>
-      <c r="Y89" s="55"/>
-      <c r="Z89" s="55"/>
-      <c r="AA89" s="55"/>
-      <c r="AB89" s="55"/>
-      <c r="AC89" s="56"/>
-      <c r="AD89" s="56"/>
-      <c r="AE89" s="56"/>
-      <c r="AF89" s="57"/>
-      <c r="AG89" s="58"/>
+      <c r="A89" s="50"/>
+      <c r="B89" s="51"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="51"/>
+      <c r="E89" s="49"/>
+      <c r="F89" s="49"/>
+      <c r="G89" s="49"/>
+      <c r="H89" s="49"/>
+      <c r="I89" s="49"/>
+      <c r="J89" s="49"/>
+      <c r="K89" s="49"/>
+      <c r="L89" s="49"/>
+      <c r="M89" s="49"/>
+      <c r="N89" s="49"/>
+      <c r="O89" s="49"/>
+      <c r="P89" s="49"/>
+      <c r="Q89" s="49"/>
+      <c r="R89" s="49"/>
+      <c r="S89" s="49"/>
+      <c r="T89" s="53"/>
+      <c r="U89" s="53"/>
+      <c r="V89" s="53"/>
+      <c r="W89" s="54"/>
+      <c r="X89" s="54"/>
+      <c r="Y89" s="54"/>
+      <c r="Z89" s="54"/>
+      <c r="AA89" s="54"/>
+      <c r="AB89" s="54"/>
+      <c r="AC89" s="55"/>
+      <c r="AD89" s="55"/>
+      <c r="AE89" s="55"/>
+      <c r="AF89" s="56"/>
+      <c r="AG89" s="57"/>
       <c r="AH89" s="43"/>
       <c r="AI89" s="44"/>
       <c r="AJ89" s="44"/>
@@ -4830,39 +4849,39 @@
       <c r="AL89" s="45"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="51"/>
-      <c r="B90" s="52"/>
-      <c r="C90" s="52"/>
-      <c r="D90" s="52"/>
-      <c r="E90" s="50"/>
-      <c r="F90" s="50"/>
-      <c r="G90" s="50"/>
-      <c r="H90" s="50"/>
-      <c r="I90" s="50"/>
-      <c r="J90" s="50"/>
-      <c r="K90" s="50"/>
-      <c r="L90" s="50"/>
-      <c r="M90" s="50"/>
-      <c r="N90" s="50"/>
-      <c r="O90" s="50"/>
-      <c r="P90" s="50"/>
-      <c r="Q90" s="50"/>
-      <c r="R90" s="50"/>
-      <c r="S90" s="50"/>
-      <c r="T90" s="54"/>
-      <c r="U90" s="54"/>
-      <c r="V90" s="54"/>
-      <c r="W90" s="55"/>
-      <c r="X90" s="55"/>
-      <c r="Y90" s="55"/>
-      <c r="Z90" s="55"/>
-      <c r="AA90" s="55"/>
-      <c r="AB90" s="55"/>
-      <c r="AC90" s="56"/>
-      <c r="AD90" s="56"/>
-      <c r="AE90" s="56"/>
-      <c r="AF90" s="57"/>
-      <c r="AG90" s="58"/>
+      <c r="A90" s="50"/>
+      <c r="B90" s="51"/>
+      <c r="C90" s="51"/>
+      <c r="D90" s="51"/>
+      <c r="E90" s="49"/>
+      <c r="F90" s="49"/>
+      <c r="G90" s="49"/>
+      <c r="H90" s="49"/>
+      <c r="I90" s="49"/>
+      <c r="J90" s="49"/>
+      <c r="K90" s="49"/>
+      <c r="L90" s="49"/>
+      <c r="M90" s="49"/>
+      <c r="N90" s="49"/>
+      <c r="O90" s="49"/>
+      <c r="P90" s="49"/>
+      <c r="Q90" s="49"/>
+      <c r="R90" s="49"/>
+      <c r="S90" s="49"/>
+      <c r="T90" s="53"/>
+      <c r="U90" s="53"/>
+      <c r="V90" s="53"/>
+      <c r="W90" s="54"/>
+      <c r="X90" s="54"/>
+      <c r="Y90" s="54"/>
+      <c r="Z90" s="54"/>
+      <c r="AA90" s="54"/>
+      <c r="AB90" s="54"/>
+      <c r="AC90" s="55"/>
+      <c r="AD90" s="55"/>
+      <c r="AE90" s="55"/>
+      <c r="AF90" s="56"/>
+      <c r="AG90" s="57"/>
       <c r="AH90" s="43"/>
       <c r="AI90" s="44"/>
       <c r="AJ90" s="44"/>
@@ -4870,39 +4889,39 @@
       <c r="AL90" s="45"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="51"/>
-      <c r="B91" s="52"/>
-      <c r="C91" s="52"/>
-      <c r="D91" s="52"/>
-      <c r="E91" s="50"/>
-      <c r="F91" s="50"/>
-      <c r="G91" s="50"/>
-      <c r="H91" s="50"/>
-      <c r="I91" s="50"/>
-      <c r="J91" s="50"/>
-      <c r="K91" s="50"/>
-      <c r="L91" s="50"/>
-      <c r="M91" s="50"/>
-      <c r="N91" s="50"/>
-      <c r="O91" s="50"/>
-      <c r="P91" s="50"/>
-      <c r="Q91" s="50"/>
-      <c r="R91" s="50"/>
-      <c r="S91" s="50"/>
-      <c r="T91" s="54"/>
-      <c r="U91" s="54"/>
-      <c r="V91" s="54"/>
-      <c r="W91" s="55"/>
-      <c r="X91" s="55"/>
-      <c r="Y91" s="55"/>
-      <c r="Z91" s="55"/>
-      <c r="AA91" s="55"/>
-      <c r="AB91" s="55"/>
-      <c r="AC91" s="56"/>
-      <c r="AD91" s="56"/>
-      <c r="AE91" s="56"/>
-      <c r="AF91" s="57"/>
-      <c r="AG91" s="58"/>
+      <c r="A91" s="50"/>
+      <c r="B91" s="51"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="51"/>
+      <c r="E91" s="49"/>
+      <c r="F91" s="49"/>
+      <c r="G91" s="49"/>
+      <c r="H91" s="49"/>
+      <c r="I91" s="49"/>
+      <c r="J91" s="49"/>
+      <c r="K91" s="49"/>
+      <c r="L91" s="49"/>
+      <c r="M91" s="49"/>
+      <c r="N91" s="49"/>
+      <c r="O91" s="49"/>
+      <c r="P91" s="49"/>
+      <c r="Q91" s="49"/>
+      <c r="R91" s="49"/>
+      <c r="S91" s="49"/>
+      <c r="T91" s="53"/>
+      <c r="U91" s="53"/>
+      <c r="V91" s="53"/>
+      <c r="W91" s="54"/>
+      <c r="X91" s="54"/>
+      <c r="Y91" s="54"/>
+      <c r="Z91" s="54"/>
+      <c r="AA91" s="54"/>
+      <c r="AB91" s="54"/>
+      <c r="AC91" s="55"/>
+      <c r="AD91" s="55"/>
+      <c r="AE91" s="55"/>
+      <c r="AF91" s="56"/>
+      <c r="AG91" s="57"/>
       <c r="AH91" s="43"/>
       <c r="AI91" s="44"/>
       <c r="AJ91" s="44"/>
@@ -4910,39 +4929,39 @@
       <c r="AL91" s="45"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="51"/>
-      <c r="B92" s="52"/>
-      <c r="C92" s="52"/>
-      <c r="D92" s="52"/>
-      <c r="E92" s="50"/>
-      <c r="F92" s="50"/>
-      <c r="G92" s="50"/>
-      <c r="H92" s="50"/>
-      <c r="I92" s="50"/>
-      <c r="J92" s="50"/>
-      <c r="K92" s="50"/>
-      <c r="L92" s="50"/>
-      <c r="M92" s="50"/>
-      <c r="N92" s="50"/>
-      <c r="O92" s="50"/>
-      <c r="P92" s="50"/>
-      <c r="Q92" s="50"/>
-      <c r="R92" s="50"/>
-      <c r="S92" s="50"/>
-      <c r="T92" s="54"/>
-      <c r="U92" s="54"/>
-      <c r="V92" s="54"/>
-      <c r="W92" s="55"/>
-      <c r="X92" s="55"/>
-      <c r="Y92" s="55"/>
-      <c r="Z92" s="55"/>
-      <c r="AA92" s="55"/>
-      <c r="AB92" s="55"/>
-      <c r="AC92" s="56"/>
-      <c r="AD92" s="56"/>
-      <c r="AE92" s="56"/>
-      <c r="AF92" s="57"/>
-      <c r="AG92" s="58"/>
+      <c r="A92" s="50"/>
+      <c r="B92" s="51"/>
+      <c r="C92" s="51"/>
+      <c r="D92" s="51"/>
+      <c r="E92" s="49"/>
+      <c r="F92" s="49"/>
+      <c r="G92" s="49"/>
+      <c r="H92" s="49"/>
+      <c r="I92" s="49"/>
+      <c r="J92" s="49"/>
+      <c r="K92" s="49"/>
+      <c r="L92" s="49"/>
+      <c r="M92" s="49"/>
+      <c r="N92" s="49"/>
+      <c r="O92" s="49"/>
+      <c r="P92" s="49"/>
+      <c r="Q92" s="49"/>
+      <c r="R92" s="49"/>
+      <c r="S92" s="49"/>
+      <c r="T92" s="53"/>
+      <c r="U92" s="53"/>
+      <c r="V92" s="53"/>
+      <c r="W92" s="54"/>
+      <c r="X92" s="54"/>
+      <c r="Y92" s="54"/>
+      <c r="Z92" s="54"/>
+      <c r="AA92" s="54"/>
+      <c r="AB92" s="54"/>
+      <c r="AC92" s="55"/>
+      <c r="AD92" s="55"/>
+      <c r="AE92" s="55"/>
+      <c r="AF92" s="56"/>
+      <c r="AG92" s="57"/>
       <c r="AH92" s="43"/>
       <c r="AI92" s="44"/>
       <c r="AJ92" s="44"/>
@@ -4950,39 +4969,39 @@
       <c r="AL92" s="45"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="51"/>
-      <c r="B93" s="52"/>
-      <c r="C93" s="52"/>
-      <c r="D93" s="52"/>
-      <c r="E93" s="50"/>
-      <c r="F93" s="50"/>
-      <c r="G93" s="50"/>
-      <c r="H93" s="50"/>
-      <c r="I93" s="50"/>
-      <c r="J93" s="50"/>
-      <c r="K93" s="50"/>
-      <c r="L93" s="50"/>
-      <c r="M93" s="50"/>
-      <c r="N93" s="50"/>
-      <c r="O93" s="50"/>
-      <c r="P93" s="50"/>
-      <c r="Q93" s="50"/>
-      <c r="R93" s="50"/>
-      <c r="S93" s="50"/>
-      <c r="T93" s="54"/>
-      <c r="U93" s="54"/>
-      <c r="V93" s="54"/>
-      <c r="W93" s="55"/>
-      <c r="X93" s="55"/>
-      <c r="Y93" s="55"/>
-      <c r="Z93" s="55"/>
-      <c r="AA93" s="55"/>
-      <c r="AB93" s="55"/>
-      <c r="AC93" s="56"/>
-      <c r="AD93" s="56"/>
-      <c r="AE93" s="56"/>
-      <c r="AF93" s="57"/>
-      <c r="AG93" s="58"/>
+      <c r="A93" s="50"/>
+      <c r="B93" s="51"/>
+      <c r="C93" s="51"/>
+      <c r="D93" s="51"/>
+      <c r="E93" s="49"/>
+      <c r="F93" s="49"/>
+      <c r="G93" s="49"/>
+      <c r="H93" s="49"/>
+      <c r="I93" s="49"/>
+      <c r="J93" s="49"/>
+      <c r="K93" s="49"/>
+      <c r="L93" s="49"/>
+      <c r="M93" s="49"/>
+      <c r="N93" s="49"/>
+      <c r="O93" s="49"/>
+      <c r="P93" s="49"/>
+      <c r="Q93" s="49"/>
+      <c r="R93" s="49"/>
+      <c r="S93" s="49"/>
+      <c r="T93" s="53"/>
+      <c r="U93" s="53"/>
+      <c r="V93" s="53"/>
+      <c r="W93" s="54"/>
+      <c r="X93" s="54"/>
+      <c r="Y93" s="54"/>
+      <c r="Z93" s="54"/>
+      <c r="AA93" s="54"/>
+      <c r="AB93" s="54"/>
+      <c r="AC93" s="55"/>
+      <c r="AD93" s="55"/>
+      <c r="AE93" s="55"/>
+      <c r="AF93" s="56"/>
+      <c r="AG93" s="57"/>
       <c r="AH93" s="43"/>
       <c r="AI93" s="44"/>
       <c r="AJ93" s="44"/>
@@ -4990,39 +5009,39 @@
       <c r="AL93" s="45"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="51"/>
-      <c r="B94" s="52"/>
-      <c r="C94" s="52"/>
-      <c r="D94" s="52"/>
-      <c r="E94" s="50"/>
-      <c r="F94" s="50"/>
-      <c r="G94" s="50"/>
-      <c r="H94" s="50"/>
-      <c r="I94" s="50"/>
-      <c r="J94" s="50"/>
-      <c r="K94" s="50"/>
-      <c r="L94" s="50"/>
-      <c r="M94" s="50"/>
-      <c r="N94" s="50"/>
-      <c r="O94" s="50"/>
-      <c r="P94" s="50"/>
-      <c r="Q94" s="50"/>
-      <c r="R94" s="50"/>
-      <c r="S94" s="50"/>
-      <c r="T94" s="54"/>
-      <c r="U94" s="54"/>
-      <c r="V94" s="54"/>
-      <c r="W94" s="55"/>
-      <c r="X94" s="55"/>
-      <c r="Y94" s="55"/>
-      <c r="Z94" s="55"/>
-      <c r="AA94" s="55"/>
-      <c r="AB94" s="55"/>
-      <c r="AC94" s="56"/>
-      <c r="AD94" s="56"/>
-      <c r="AE94" s="56"/>
-      <c r="AF94" s="57"/>
-      <c r="AG94" s="58"/>
+      <c r="A94" s="50"/>
+      <c r="B94" s="51"/>
+      <c r="C94" s="51"/>
+      <c r="D94" s="51"/>
+      <c r="E94" s="49"/>
+      <c r="F94" s="49"/>
+      <c r="G94" s="49"/>
+      <c r="H94" s="49"/>
+      <c r="I94" s="49"/>
+      <c r="J94" s="49"/>
+      <c r="K94" s="49"/>
+      <c r="L94" s="49"/>
+      <c r="M94" s="49"/>
+      <c r="N94" s="49"/>
+      <c r="O94" s="49"/>
+      <c r="P94" s="49"/>
+      <c r="Q94" s="49"/>
+      <c r="R94" s="49"/>
+      <c r="S94" s="49"/>
+      <c r="T94" s="53"/>
+      <c r="U94" s="53"/>
+      <c r="V94" s="53"/>
+      <c r="W94" s="54"/>
+      <c r="X94" s="54"/>
+      <c r="Y94" s="54"/>
+      <c r="Z94" s="54"/>
+      <c r="AA94" s="54"/>
+      <c r="AB94" s="54"/>
+      <c r="AC94" s="55"/>
+      <c r="AD94" s="55"/>
+      <c r="AE94" s="55"/>
+      <c r="AF94" s="56"/>
+      <c r="AG94" s="57"/>
       <c r="AH94" s="43"/>
       <c r="AI94" s="44"/>
       <c r="AJ94" s="44"/>
@@ -5030,39 +5049,39 @@
       <c r="AL94" s="45"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="51"/>
-      <c r="B95" s="52"/>
-      <c r="C95" s="52"/>
-      <c r="D95" s="52"/>
-      <c r="E95" s="50"/>
-      <c r="F95" s="50"/>
-      <c r="G95" s="50"/>
-      <c r="H95" s="50"/>
-      <c r="I95" s="50"/>
-      <c r="J95" s="50"/>
-      <c r="K95" s="50"/>
-      <c r="L95" s="50"/>
-      <c r="M95" s="50"/>
-      <c r="N95" s="50"/>
-      <c r="O95" s="50"/>
-      <c r="P95" s="50"/>
-      <c r="Q95" s="50"/>
-      <c r="R95" s="50"/>
-      <c r="S95" s="50"/>
-      <c r="T95" s="54"/>
-      <c r="U95" s="54"/>
-      <c r="V95" s="54"/>
-      <c r="W95" s="55"/>
-      <c r="X95" s="55"/>
-      <c r="Y95" s="55"/>
-      <c r="Z95" s="55"/>
-      <c r="AA95" s="55"/>
-      <c r="AB95" s="55"/>
-      <c r="AC95" s="56"/>
-      <c r="AD95" s="56"/>
-      <c r="AE95" s="56"/>
-      <c r="AF95" s="57"/>
-      <c r="AG95" s="58"/>
+      <c r="A95" s="50"/>
+      <c r="B95" s="51"/>
+      <c r="C95" s="51"/>
+      <c r="D95" s="51"/>
+      <c r="E95" s="49"/>
+      <c r="F95" s="49"/>
+      <c r="G95" s="49"/>
+      <c r="H95" s="49"/>
+      <c r="I95" s="49"/>
+      <c r="J95" s="49"/>
+      <c r="K95" s="49"/>
+      <c r="L95" s="49"/>
+      <c r="M95" s="49"/>
+      <c r="N95" s="49"/>
+      <c r="O95" s="49"/>
+      <c r="P95" s="49"/>
+      <c r="Q95" s="49"/>
+      <c r="R95" s="49"/>
+      <c r="S95" s="49"/>
+      <c r="T95" s="53"/>
+      <c r="U95" s="53"/>
+      <c r="V95" s="53"/>
+      <c r="W95" s="54"/>
+      <c r="X95" s="54"/>
+      <c r="Y95" s="54"/>
+      <c r="Z95" s="54"/>
+      <c r="AA95" s="54"/>
+      <c r="AB95" s="54"/>
+      <c r="AC95" s="55"/>
+      <c r="AD95" s="55"/>
+      <c r="AE95" s="55"/>
+      <c r="AF95" s="56"/>
+      <c r="AG95" s="57"/>
       <c r="AH95" s="43"/>
       <c r="AI95" s="44"/>
       <c r="AJ95" s="44"/>
@@ -5070,39 +5089,39 @@
       <c r="AL95" s="45"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="51"/>
-      <c r="B96" s="59"/>
-      <c r="C96" s="59"/>
-      <c r="D96" s="59"/>
-      <c r="E96" s="50"/>
-      <c r="F96" s="50"/>
-      <c r="G96" s="50"/>
-      <c r="H96" s="50"/>
-      <c r="I96" s="50"/>
-      <c r="J96" s="50"/>
-      <c r="K96" s="50"/>
-      <c r="L96" s="50"/>
-      <c r="M96" s="50"/>
-      <c r="N96" s="50"/>
-      <c r="O96" s="50"/>
-      <c r="P96" s="50"/>
-      <c r="Q96" s="50"/>
-      <c r="R96" s="50"/>
-      <c r="S96" s="50"/>
-      <c r="T96" s="54"/>
-      <c r="U96" s="54"/>
-      <c r="V96" s="54"/>
-      <c r="W96" s="55"/>
-      <c r="X96" s="55"/>
-      <c r="Y96" s="55"/>
-      <c r="Z96" s="55"/>
-      <c r="AA96" s="55"/>
-      <c r="AB96" s="55"/>
-      <c r="AC96" s="56"/>
-      <c r="AD96" s="56"/>
-      <c r="AE96" s="56"/>
-      <c r="AF96" s="57"/>
-      <c r="AG96" s="58"/>
+      <c r="A96" s="50"/>
+      <c r="B96" s="58"/>
+      <c r="C96" s="58"/>
+      <c r="D96" s="58"/>
+      <c r="E96" s="49"/>
+      <c r="F96" s="49"/>
+      <c r="G96" s="49"/>
+      <c r="H96" s="49"/>
+      <c r="I96" s="49"/>
+      <c r="J96" s="49"/>
+      <c r="K96" s="49"/>
+      <c r="L96" s="49"/>
+      <c r="M96" s="49"/>
+      <c r="N96" s="49"/>
+      <c r="O96" s="49"/>
+      <c r="P96" s="49"/>
+      <c r="Q96" s="49"/>
+      <c r="R96" s="49"/>
+      <c r="S96" s="49"/>
+      <c r="T96" s="53"/>
+      <c r="U96" s="53"/>
+      <c r="V96" s="53"/>
+      <c r="W96" s="54"/>
+      <c r="X96" s="54"/>
+      <c r="Y96" s="54"/>
+      <c r="Z96" s="54"/>
+      <c r="AA96" s="54"/>
+      <c r="AB96" s="54"/>
+      <c r="AC96" s="55"/>
+      <c r="AD96" s="55"/>
+      <c r="AE96" s="55"/>
+      <c r="AF96" s="56"/>
+      <c r="AG96" s="57"/>
       <c r="AH96" s="43"/>
       <c r="AI96" s="44"/>
       <c r="AJ96" s="44"/>
@@ -5110,39 +5129,39 @@
       <c r="AL96" s="45"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="51"/>
-      <c r="B97" s="59"/>
-      <c r="C97" s="59"/>
-      <c r="D97" s="59"/>
-      <c r="E97" s="50"/>
-      <c r="F97" s="50"/>
-      <c r="G97" s="50"/>
-      <c r="H97" s="50"/>
-      <c r="I97" s="50"/>
-      <c r="J97" s="50"/>
-      <c r="K97" s="50"/>
-      <c r="L97" s="50"/>
-      <c r="M97" s="50"/>
-      <c r="N97" s="50"/>
-      <c r="O97" s="50"/>
-      <c r="P97" s="50"/>
-      <c r="Q97" s="50"/>
-      <c r="R97" s="50"/>
-      <c r="S97" s="50"/>
-      <c r="T97" s="54"/>
-      <c r="U97" s="54"/>
-      <c r="V97" s="54"/>
-      <c r="W97" s="55"/>
-      <c r="X97" s="55"/>
-      <c r="Y97" s="55"/>
-      <c r="Z97" s="55"/>
-      <c r="AA97" s="55"/>
-      <c r="AB97" s="55"/>
-      <c r="AC97" s="56"/>
-      <c r="AD97" s="56"/>
-      <c r="AE97" s="56"/>
-      <c r="AF97" s="57"/>
-      <c r="AG97" s="58"/>
+      <c r="A97" s="50"/>
+      <c r="B97" s="58"/>
+      <c r="C97" s="58"/>
+      <c r="D97" s="58"/>
+      <c r="E97" s="49"/>
+      <c r="F97" s="49"/>
+      <c r="G97" s="49"/>
+      <c r="H97" s="49"/>
+      <c r="I97" s="49"/>
+      <c r="J97" s="49"/>
+      <c r="K97" s="49"/>
+      <c r="L97" s="49"/>
+      <c r="M97" s="49"/>
+      <c r="N97" s="49"/>
+      <c r="O97" s="49"/>
+      <c r="P97" s="49"/>
+      <c r="Q97" s="49"/>
+      <c r="R97" s="49"/>
+      <c r="S97" s="49"/>
+      <c r="T97" s="53"/>
+      <c r="U97" s="53"/>
+      <c r="V97" s="53"/>
+      <c r="W97" s="54"/>
+      <c r="X97" s="54"/>
+      <c r="Y97" s="54"/>
+      <c r="Z97" s="54"/>
+      <c r="AA97" s="54"/>
+      <c r="AB97" s="54"/>
+      <c r="AC97" s="55"/>
+      <c r="AD97" s="55"/>
+      <c r="AE97" s="55"/>
+      <c r="AF97" s="56"/>
+      <c r="AG97" s="57"/>
       <c r="AH97" s="43"/>
       <c r="AI97" s="44"/>
       <c r="AJ97" s="44"/>
@@ -5150,39 +5169,39 @@
       <c r="AL97" s="45"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="51"/>
-      <c r="B98" s="59"/>
-      <c r="C98" s="59"/>
-      <c r="D98" s="59"/>
-      <c r="E98" s="50"/>
-      <c r="F98" s="50"/>
-      <c r="G98" s="50"/>
-      <c r="H98" s="50"/>
-      <c r="I98" s="50"/>
-      <c r="J98" s="50"/>
-      <c r="K98" s="50"/>
-      <c r="L98" s="50"/>
-      <c r="M98" s="50"/>
-      <c r="N98" s="50"/>
-      <c r="O98" s="50"/>
-      <c r="P98" s="50"/>
-      <c r="Q98" s="50"/>
-      <c r="R98" s="50"/>
-      <c r="S98" s="50"/>
-      <c r="T98" s="54"/>
-      <c r="U98" s="54"/>
-      <c r="V98" s="54"/>
-      <c r="W98" s="55"/>
-      <c r="X98" s="55"/>
-      <c r="Y98" s="55"/>
-      <c r="Z98" s="55"/>
-      <c r="AA98" s="55"/>
-      <c r="AB98" s="55"/>
-      <c r="AC98" s="56"/>
-      <c r="AD98" s="56"/>
-      <c r="AE98" s="56"/>
-      <c r="AF98" s="57"/>
-      <c r="AG98" s="58"/>
+      <c r="A98" s="50"/>
+      <c r="B98" s="58"/>
+      <c r="C98" s="58"/>
+      <c r="D98" s="58"/>
+      <c r="E98" s="49"/>
+      <c r="F98" s="49"/>
+      <c r="G98" s="49"/>
+      <c r="H98" s="49"/>
+      <c r="I98" s="49"/>
+      <c r="J98" s="49"/>
+      <c r="K98" s="49"/>
+      <c r="L98" s="49"/>
+      <c r="M98" s="49"/>
+      <c r="N98" s="49"/>
+      <c r="O98" s="49"/>
+      <c r="P98" s="49"/>
+      <c r="Q98" s="49"/>
+      <c r="R98" s="49"/>
+      <c r="S98" s="49"/>
+      <c r="T98" s="53"/>
+      <c r="U98" s="53"/>
+      <c r="V98" s="53"/>
+      <c r="W98" s="54"/>
+      <c r="X98" s="54"/>
+      <c r="Y98" s="54"/>
+      <c r="Z98" s="54"/>
+      <c r="AA98" s="54"/>
+      <c r="AB98" s="54"/>
+      <c r="AC98" s="55"/>
+      <c r="AD98" s="55"/>
+      <c r="AE98" s="55"/>
+      <c r="AF98" s="56"/>
+      <c r="AG98" s="57"/>
       <c r="AH98" s="43"/>
       <c r="AI98" s="44"/>
       <c r="AJ98" s="44"/>
@@ -5190,39 +5209,39 @@
       <c r="AL98" s="45"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="51"/>
-      <c r="B99" s="59"/>
-      <c r="C99" s="59"/>
-      <c r="D99" s="59"/>
-      <c r="E99" s="50"/>
-      <c r="F99" s="50"/>
-      <c r="G99" s="50"/>
-      <c r="H99" s="50"/>
-      <c r="I99" s="50"/>
-      <c r="J99" s="50"/>
-      <c r="K99" s="50"/>
-      <c r="L99" s="50"/>
-      <c r="M99" s="50"/>
-      <c r="N99" s="50"/>
-      <c r="O99" s="50"/>
-      <c r="P99" s="50"/>
-      <c r="Q99" s="50"/>
-      <c r="R99" s="50"/>
-      <c r="S99" s="50"/>
-      <c r="T99" s="54"/>
-      <c r="U99" s="54"/>
-      <c r="V99" s="54"/>
-      <c r="W99" s="55"/>
-      <c r="X99" s="55"/>
-      <c r="Y99" s="55"/>
-      <c r="Z99" s="55"/>
-      <c r="AA99" s="55"/>
-      <c r="AB99" s="55"/>
-      <c r="AC99" s="56"/>
-      <c r="AD99" s="56"/>
-      <c r="AE99" s="56"/>
-      <c r="AF99" s="57"/>
-      <c r="AG99" s="58"/>
+      <c r="A99" s="50"/>
+      <c r="B99" s="58"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="58"/>
+      <c r="E99" s="49"/>
+      <c r="F99" s="49"/>
+      <c r="G99" s="49"/>
+      <c r="H99" s="49"/>
+      <c r="I99" s="49"/>
+      <c r="J99" s="49"/>
+      <c r="K99" s="49"/>
+      <c r="L99" s="49"/>
+      <c r="M99" s="49"/>
+      <c r="N99" s="49"/>
+      <c r="O99" s="49"/>
+      <c r="P99" s="49"/>
+      <c r="Q99" s="49"/>
+      <c r="R99" s="49"/>
+      <c r="S99" s="49"/>
+      <c r="T99" s="53"/>
+      <c r="U99" s="53"/>
+      <c r="V99" s="53"/>
+      <c r="W99" s="54"/>
+      <c r="X99" s="54"/>
+      <c r="Y99" s="54"/>
+      <c r="Z99" s="54"/>
+      <c r="AA99" s="54"/>
+      <c r="AB99" s="54"/>
+      <c r="AC99" s="55"/>
+      <c r="AD99" s="55"/>
+      <c r="AE99" s="55"/>
+      <c r="AF99" s="56"/>
+      <c r="AG99" s="57"/>
       <c r="AH99" s="43"/>
       <c r="AI99" s="44"/>
       <c r="AJ99" s="44"/>
@@ -5230,39 +5249,39 @@
       <c r="AL99" s="45"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="51"/>
-      <c r="B100" s="59"/>
-      <c r="C100" s="59"/>
-      <c r="D100" s="59"/>
-      <c r="E100" s="50"/>
-      <c r="F100" s="50"/>
-      <c r="G100" s="50"/>
-      <c r="H100" s="50"/>
-      <c r="I100" s="50"/>
-      <c r="J100" s="50"/>
-      <c r="K100" s="50"/>
-      <c r="L100" s="50"/>
-      <c r="M100" s="50"/>
-      <c r="N100" s="50"/>
-      <c r="O100" s="50"/>
-      <c r="P100" s="50"/>
-      <c r="Q100" s="50"/>
-      <c r="R100" s="50"/>
-      <c r="S100" s="50"/>
-      <c r="T100" s="54"/>
-      <c r="U100" s="54"/>
-      <c r="V100" s="54"/>
-      <c r="W100" s="55"/>
-      <c r="X100" s="55"/>
-      <c r="Y100" s="55"/>
-      <c r="Z100" s="55"/>
-      <c r="AA100" s="55"/>
-      <c r="AB100" s="55"/>
-      <c r="AC100" s="56"/>
-      <c r="AD100" s="56"/>
-      <c r="AE100" s="56"/>
-      <c r="AF100" s="57"/>
-      <c r="AG100" s="58"/>
+      <c r="A100" s="50"/>
+      <c r="B100" s="58"/>
+      <c r="C100" s="58"/>
+      <c r="D100" s="58"/>
+      <c r="E100" s="49"/>
+      <c r="F100" s="49"/>
+      <c r="G100" s="49"/>
+      <c r="H100" s="49"/>
+      <c r="I100" s="49"/>
+      <c r="J100" s="49"/>
+      <c r="K100" s="49"/>
+      <c r="L100" s="49"/>
+      <c r="M100" s="49"/>
+      <c r="N100" s="49"/>
+      <c r="O100" s="49"/>
+      <c r="P100" s="49"/>
+      <c r="Q100" s="49"/>
+      <c r="R100" s="49"/>
+      <c r="S100" s="49"/>
+      <c r="T100" s="53"/>
+      <c r="U100" s="53"/>
+      <c r="V100" s="53"/>
+      <c r="W100" s="54"/>
+      <c r="X100" s="54"/>
+      <c r="Y100" s="54"/>
+      <c r="Z100" s="54"/>
+      <c r="AA100" s="54"/>
+      <c r="AB100" s="54"/>
+      <c r="AC100" s="55"/>
+      <c r="AD100" s="55"/>
+      <c r="AE100" s="55"/>
+      <c r="AF100" s="56"/>
+      <c r="AG100" s="57"/>
       <c r="AH100" s="43"/>
       <c r="AI100" s="44"/>
       <c r="AJ100" s="44"/>
@@ -5270,39 +5289,39 @@
       <c r="AL100" s="45"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="51"/>
-      <c r="B101" s="59"/>
-      <c r="C101" s="59"/>
-      <c r="D101" s="59"/>
-      <c r="E101" s="50"/>
-      <c r="F101" s="50"/>
-      <c r="G101" s="50"/>
-      <c r="H101" s="50"/>
-      <c r="I101" s="50"/>
-      <c r="J101" s="50"/>
-      <c r="K101" s="50"/>
-      <c r="L101" s="50"/>
-      <c r="M101" s="50"/>
-      <c r="N101" s="50"/>
-      <c r="O101" s="50"/>
-      <c r="P101" s="50"/>
-      <c r="Q101" s="50"/>
-      <c r="R101" s="50"/>
-      <c r="S101" s="50"/>
-      <c r="T101" s="54"/>
-      <c r="U101" s="54"/>
-      <c r="V101" s="54"/>
-      <c r="W101" s="55"/>
-      <c r="X101" s="55"/>
-      <c r="Y101" s="55"/>
-      <c r="Z101" s="55"/>
-      <c r="AA101" s="55"/>
-      <c r="AB101" s="55"/>
-      <c r="AC101" s="56"/>
-      <c r="AD101" s="56"/>
-      <c r="AE101" s="56"/>
-      <c r="AF101" s="57"/>
-      <c r="AG101" s="58"/>
+      <c r="A101" s="50"/>
+      <c r="B101" s="58"/>
+      <c r="C101" s="58"/>
+      <c r="D101" s="58"/>
+      <c r="E101" s="49"/>
+      <c r="F101" s="49"/>
+      <c r="G101" s="49"/>
+      <c r="H101" s="49"/>
+      <c r="I101" s="49"/>
+      <c r="J101" s="49"/>
+      <c r="K101" s="49"/>
+      <c r="L101" s="49"/>
+      <c r="M101" s="49"/>
+      <c r="N101" s="49"/>
+      <c r="O101" s="49"/>
+      <c r="P101" s="49"/>
+      <c r="Q101" s="49"/>
+      <c r="R101" s="49"/>
+      <c r="S101" s="49"/>
+      <c r="T101" s="53"/>
+      <c r="U101" s="53"/>
+      <c r="V101" s="53"/>
+      <c r="W101" s="54"/>
+      <c r="X101" s="54"/>
+      <c r="Y101" s="54"/>
+      <c r="Z101" s="54"/>
+      <c r="AA101" s="54"/>
+      <c r="AB101" s="54"/>
+      <c r="AC101" s="55"/>
+      <c r="AD101" s="55"/>
+      <c r="AE101" s="55"/>
+      <c r="AF101" s="56"/>
+      <c r="AG101" s="57"/>
       <c r="AH101" s="43"/>
       <c r="AI101" s="44"/>
       <c r="AJ101" s="44"/>
@@ -5310,39 +5329,39 @@
       <c r="AL101" s="45"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="51"/>
-      <c r="B102" s="59"/>
-      <c r="C102" s="59"/>
-      <c r="D102" s="59"/>
-      <c r="E102" s="50"/>
-      <c r="F102" s="50"/>
-      <c r="G102" s="50"/>
-      <c r="H102" s="50"/>
-      <c r="I102" s="50"/>
-      <c r="J102" s="50"/>
-      <c r="K102" s="50"/>
-      <c r="L102" s="50"/>
-      <c r="M102" s="50"/>
-      <c r="N102" s="50"/>
-      <c r="O102" s="50"/>
-      <c r="P102" s="50"/>
-      <c r="Q102" s="50"/>
-      <c r="R102" s="50"/>
-      <c r="S102" s="50"/>
-      <c r="T102" s="54"/>
-      <c r="U102" s="54"/>
-      <c r="V102" s="54"/>
-      <c r="W102" s="55"/>
-      <c r="X102" s="55"/>
-      <c r="Y102" s="55"/>
-      <c r="Z102" s="55"/>
-      <c r="AA102" s="55"/>
-      <c r="AB102" s="55"/>
-      <c r="AC102" s="56"/>
-      <c r="AD102" s="56"/>
-      <c r="AE102" s="56"/>
-      <c r="AF102" s="57"/>
-      <c r="AG102" s="58"/>
+      <c r="A102" s="50"/>
+      <c r="B102" s="58"/>
+      <c r="C102" s="58"/>
+      <c r="D102" s="58"/>
+      <c r="E102" s="49"/>
+      <c r="F102" s="49"/>
+      <c r="G102" s="49"/>
+      <c r="H102" s="49"/>
+      <c r="I102" s="49"/>
+      <c r="J102" s="49"/>
+      <c r="K102" s="49"/>
+      <c r="L102" s="49"/>
+      <c r="M102" s="49"/>
+      <c r="N102" s="49"/>
+      <c r="O102" s="49"/>
+      <c r="P102" s="49"/>
+      <c r="Q102" s="49"/>
+      <c r="R102" s="49"/>
+      <c r="S102" s="49"/>
+      <c r="T102" s="53"/>
+      <c r="U102" s="53"/>
+      <c r="V102" s="53"/>
+      <c r="W102" s="54"/>
+      <c r="X102" s="54"/>
+      <c r="Y102" s="54"/>
+      <c r="Z102" s="54"/>
+      <c r="AA102" s="54"/>
+      <c r="AB102" s="54"/>
+      <c r="AC102" s="55"/>
+      <c r="AD102" s="55"/>
+      <c r="AE102" s="55"/>
+      <c r="AF102" s="56"/>
+      <c r="AG102" s="57"/>
       <c r="AH102" s="43"/>
       <c r="AI102" s="44"/>
       <c r="AJ102" s="44"/>
@@ -5350,39 +5369,39 @@
       <c r="AL102" s="45"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="51"/>
-      <c r="B103" s="59"/>
-      <c r="C103" s="59"/>
-      <c r="D103" s="59"/>
-      <c r="E103" s="50"/>
-      <c r="F103" s="50"/>
-      <c r="G103" s="50"/>
-      <c r="H103" s="50"/>
-      <c r="I103" s="50"/>
-      <c r="J103" s="50"/>
-      <c r="K103" s="50"/>
-      <c r="L103" s="50"/>
-      <c r="M103" s="50"/>
-      <c r="N103" s="50"/>
-      <c r="O103" s="50"/>
-      <c r="P103" s="50"/>
-      <c r="Q103" s="50"/>
-      <c r="R103" s="50"/>
-      <c r="S103" s="50"/>
-      <c r="T103" s="54"/>
-      <c r="U103" s="54"/>
-      <c r="V103" s="54"/>
-      <c r="W103" s="55"/>
-      <c r="X103" s="55"/>
-      <c r="Y103" s="55"/>
-      <c r="Z103" s="55"/>
-      <c r="AA103" s="55"/>
-      <c r="AB103" s="55"/>
-      <c r="AC103" s="56"/>
-      <c r="AD103" s="56"/>
-      <c r="AE103" s="56"/>
-      <c r="AF103" s="57"/>
-      <c r="AG103" s="58"/>
+      <c r="A103" s="50"/>
+      <c r="B103" s="58"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="49"/>
+      <c r="F103" s="49"/>
+      <c r="G103" s="49"/>
+      <c r="H103" s="49"/>
+      <c r="I103" s="49"/>
+      <c r="J103" s="49"/>
+      <c r="K103" s="49"/>
+      <c r="L103" s="49"/>
+      <c r="M103" s="49"/>
+      <c r="N103" s="49"/>
+      <c r="O103" s="49"/>
+      <c r="P103" s="49"/>
+      <c r="Q103" s="49"/>
+      <c r="R103" s="49"/>
+      <c r="S103" s="49"/>
+      <c r="T103" s="53"/>
+      <c r="U103" s="53"/>
+      <c r="V103" s="53"/>
+      <c r="W103" s="54"/>
+      <c r="X103" s="54"/>
+      <c r="Y103" s="54"/>
+      <c r="Z103" s="54"/>
+      <c r="AA103" s="54"/>
+      <c r="AB103" s="54"/>
+      <c r="AC103" s="55"/>
+      <c r="AD103" s="55"/>
+      <c r="AE103" s="55"/>
+      <c r="AF103" s="56"/>
+      <c r="AG103" s="57"/>
       <c r="AH103" s="43"/>
       <c r="AI103" s="44"/>
       <c r="AJ103" s="44"/>
@@ -5390,39 +5409,39 @@
       <c r="AL103" s="45"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="51"/>
-      <c r="B104" s="59"/>
-      <c r="C104" s="59"/>
-      <c r="D104" s="59"/>
-      <c r="E104" s="50"/>
-      <c r="F104" s="50"/>
-      <c r="G104" s="50"/>
-      <c r="H104" s="50"/>
-      <c r="I104" s="50"/>
-      <c r="J104" s="50"/>
-      <c r="K104" s="50"/>
-      <c r="L104" s="50"/>
-      <c r="M104" s="50"/>
-      <c r="N104" s="50"/>
-      <c r="O104" s="50"/>
-      <c r="P104" s="50"/>
-      <c r="Q104" s="50"/>
-      <c r="R104" s="50"/>
-      <c r="S104" s="50"/>
-      <c r="T104" s="54"/>
-      <c r="U104" s="54"/>
-      <c r="V104" s="54"/>
-      <c r="W104" s="55"/>
-      <c r="X104" s="55"/>
-      <c r="Y104" s="55"/>
-      <c r="Z104" s="55"/>
-      <c r="AA104" s="55"/>
-      <c r="AB104" s="55"/>
-      <c r="AC104" s="56"/>
-      <c r="AD104" s="56"/>
-      <c r="AE104" s="56"/>
-      <c r="AF104" s="57"/>
-      <c r="AG104" s="58"/>
+      <c r="A104" s="50"/>
+      <c r="B104" s="58"/>
+      <c r="C104" s="58"/>
+      <c r="D104" s="58"/>
+      <c r="E104" s="49"/>
+      <c r="F104" s="49"/>
+      <c r="G104" s="49"/>
+      <c r="H104" s="49"/>
+      <c r="I104" s="49"/>
+      <c r="J104" s="49"/>
+      <c r="K104" s="49"/>
+      <c r="L104" s="49"/>
+      <c r="M104" s="49"/>
+      <c r="N104" s="49"/>
+      <c r="O104" s="49"/>
+      <c r="P104" s="49"/>
+      <c r="Q104" s="49"/>
+      <c r="R104" s="49"/>
+      <c r="S104" s="49"/>
+      <c r="T104" s="53"/>
+      <c r="U104" s="53"/>
+      <c r="V104" s="53"/>
+      <c r="W104" s="54"/>
+      <c r="X104" s="54"/>
+      <c r="Y104" s="54"/>
+      <c r="Z104" s="54"/>
+      <c r="AA104" s="54"/>
+      <c r="AB104" s="54"/>
+      <c r="AC104" s="55"/>
+      <c r="AD104" s="55"/>
+      <c r="AE104" s="55"/>
+      <c r="AF104" s="56"/>
+      <c r="AG104" s="57"/>
       <c r="AH104" s="43"/>
       <c r="AI104" s="44"/>
       <c r="AJ104" s="44"/>
@@ -5430,39 +5449,39 @@
       <c r="AL104" s="45"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="51"/>
-      <c r="B105" s="59"/>
-      <c r="C105" s="59"/>
-      <c r="D105" s="59"/>
-      <c r="E105" s="50"/>
-      <c r="F105" s="50"/>
-      <c r="G105" s="50"/>
-      <c r="H105" s="50"/>
-      <c r="I105" s="50"/>
-      <c r="J105" s="50"/>
-      <c r="K105" s="50"/>
-      <c r="L105" s="50"/>
-      <c r="M105" s="50"/>
-      <c r="N105" s="50"/>
-      <c r="O105" s="50"/>
-      <c r="P105" s="50"/>
-      <c r="Q105" s="50"/>
-      <c r="R105" s="50"/>
-      <c r="S105" s="50"/>
-      <c r="T105" s="54"/>
-      <c r="U105" s="54"/>
-      <c r="V105" s="54"/>
-      <c r="W105" s="55"/>
-      <c r="X105" s="55"/>
-      <c r="Y105" s="55"/>
-      <c r="Z105" s="55"/>
-      <c r="AA105" s="55"/>
-      <c r="AB105" s="55"/>
-      <c r="AC105" s="56"/>
-      <c r="AD105" s="56"/>
-      <c r="AE105" s="56"/>
-      <c r="AF105" s="57"/>
-      <c r="AG105" s="58"/>
+      <c r="A105" s="50"/>
+      <c r="B105" s="58"/>
+      <c r="C105" s="58"/>
+      <c r="D105" s="58"/>
+      <c r="E105" s="49"/>
+      <c r="F105" s="49"/>
+      <c r="G105" s="49"/>
+      <c r="H105" s="49"/>
+      <c r="I105" s="49"/>
+      <c r="J105" s="49"/>
+      <c r="K105" s="49"/>
+      <c r="L105" s="49"/>
+      <c r="M105" s="49"/>
+      <c r="N105" s="49"/>
+      <c r="O105" s="49"/>
+      <c r="P105" s="49"/>
+      <c r="Q105" s="49"/>
+      <c r="R105" s="49"/>
+      <c r="S105" s="49"/>
+      <c r="T105" s="53"/>
+      <c r="U105" s="53"/>
+      <c r="V105" s="53"/>
+      <c r="W105" s="54"/>
+      <c r="X105" s="54"/>
+      <c r="Y105" s="54"/>
+      <c r="Z105" s="54"/>
+      <c r="AA105" s="54"/>
+      <c r="AB105" s="54"/>
+      <c r="AC105" s="55"/>
+      <c r="AD105" s="55"/>
+      <c r="AE105" s="55"/>
+      <c r="AF105" s="56"/>
+      <c r="AG105" s="57"/>
       <c r="AH105" s="43"/>
       <c r="AI105" s="44"/>
       <c r="AJ105" s="44"/>
